--- a/ChristmasBaskets/2015/LOA GE Client List 2015.xlsx
+++ b/ChristmasBaskets/2015/LOA GE Client List 2015.xlsx
@@ -15,7 +15,7 @@
     <sheet name="GE 2015 Waiting List " sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2015'!$G$1:$G$350</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2015'!$G$1:$G$334</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8596" uniqueCount="2605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8507" uniqueCount="2561">
   <si>
     <t>Tittle</t>
   </si>
@@ -6725,12 +6725,6 @@
     <t xml:space="preserve">Mountain View Terrace Apt. 2 </t>
   </si>
   <si>
-    <t>Judi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mountain Pass Road </t>
-  </si>
-  <si>
     <t xml:space="preserve">Self/MOW </t>
   </si>
   <si>
@@ -7649,18 +7643,6 @@
     <t>540-206-6705</t>
   </si>
   <si>
-    <t>Johnny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billy </t>
-  </si>
-  <si>
-    <t>Frank (Dennis)</t>
-  </si>
-  <si>
-    <t>540-864-5301</t>
-  </si>
-  <si>
     <t>Samuel&amp; Brenda</t>
   </si>
   <si>
@@ -7688,30 +7670,6 @@
     <t xml:space="preserve">MOW/Barbara </t>
   </si>
   <si>
-    <t xml:space="preserve">Last </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First </t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street </t>
-  </si>
-  <si>
-    <t xml:space="preserve">City </t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telephone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referral  Source </t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
@@ -7736,106 +7694,16 @@
     <t>Westover #102</t>
   </si>
   <si>
-    <t>Winthrop Ave SW #110</t>
-  </si>
-  <si>
-    <t>540-345-8736</t>
-  </si>
-  <si>
     <t xml:space="preserve">Patterson Ave SW </t>
   </si>
   <si>
     <t>540-985-3183</t>
   </si>
   <si>
-    <t>Rorer Ave SW</t>
-  </si>
-  <si>
-    <t>540-343-7669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAITING LIST </t>
-  </si>
-  <si>
-    <t>Flinchum</t>
-  </si>
-  <si>
-    <t>Velma</t>
-  </si>
-  <si>
-    <t>Plantation Rd NE</t>
-  </si>
-  <si>
-    <t>540-392-0157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self/Waiting List </t>
-  </si>
-  <si>
-    <t>Patton Ave NW</t>
-  </si>
-  <si>
-    <t>Lumbson</t>
-  </si>
-  <si>
-    <t>Elm Ave SE</t>
-  </si>
-  <si>
-    <t>540-243-9875</t>
-  </si>
-  <si>
-    <t>Bobby</t>
-  </si>
-  <si>
-    <t>Campbell Ave SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baig </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaine </t>
-  </si>
-  <si>
-    <t>9th St NW Apt 301</t>
-  </si>
-  <si>
     <t xml:space="preserve">Irma </t>
   </si>
   <si>
     <t>9th Street NW Apt 222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dick's Creek Road </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOW/Brad </t>
-  </si>
-  <si>
-    <t>MOW/Brad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenway </t>
-  </si>
-  <si>
-    <t>6th Street Atp 5-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT OF AREA/PU AT LOA? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RR3 </t>
-  </si>
-  <si>
-    <t>Box 1041</t>
-  </si>
-  <si>
-    <t>540-864-5086</t>
-  </si>
-  <si>
-    <t>Hutchinson</t>
   </si>
   <si>
     <t>540-892-8568</t>
@@ -7848,7 +7716,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7898,13 +7766,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -7930,7 +7791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -8005,22 +7866,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -8074,14 +7924,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8098,8 +7945,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8372,7 +8217,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -36502,10 +36347,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q350"/>
+  <dimension ref="A1:Q334"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J201" sqref="J2:J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -36607,16 +36452,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="F3" s="18">
         <v>1322</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>564</v>
@@ -36651,7 +36496,7 @@
         <v>4337</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>14</v>
@@ -36660,10 +36505,10 @@
         <v>24019</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
@@ -36678,7 +36523,7 @@
         <v>786</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -36686,7 +36531,7 @@
         <v>373</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>564</v>
@@ -36695,10 +36540,10 @@
         <v>24016</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
@@ -36745,7 +36590,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>301</v>
@@ -36754,7 +36599,7 @@
         <v>1020</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>564</v>
@@ -36763,10 +36608,10 @@
         <v>24013</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
@@ -36794,7 +36639,7 @@
       <c r="H8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>24072</v>
       </c>
       <c r="J8" s="18" t="s">
@@ -36813,16 +36658,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="F9" s="18">
         <v>1827</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>564</v>
@@ -36831,7 +36676,7 @@
         <v>24012</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>2070</v>
@@ -36962,7 +36807,7 @@
         <v>601</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>14</v>
@@ -36971,10 +36816,10 @@
         <v>24016</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
@@ -36986,7 +36831,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>1475</v>
@@ -36995,7 +36840,7 @@
         <v>202</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>42</v>
@@ -37004,10 +36849,10 @@
         <v>24179</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
@@ -37019,10 +36864,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -37030,7 +36875,7 @@
         <v>1117</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>564</v>
@@ -37039,10 +36884,10 @@
         <v>24017</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
@@ -37063,7 +36908,7 @@
         <v>3520</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>14</v>
@@ -37075,7 +36920,7 @@
         <v>225</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
@@ -37096,7 +36941,7 @@
         <v>3038</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>14</v>
@@ -37108,7 +36953,7 @@
         <v>675</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
@@ -37120,16 +36965,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="F18" s="18">
         <v>1122</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>14</v>
@@ -37138,10 +36983,10 @@
         <v>24012</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
@@ -37162,7 +37007,7 @@
         <v>119</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>14</v>
@@ -37174,7 +37019,7 @@
         <v>312</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
@@ -37186,7 +37031,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>158</v>
@@ -37195,7 +37040,7 @@
         <v>2306</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>564</v>
@@ -37204,10 +37049,10 @@
         <v>24015</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
@@ -37267,7 +37112,7 @@
         <v>1527</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>14</v>
@@ -37279,7 +37124,7 @@
         <v>731</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
@@ -37330,7 +37175,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>269</v>
@@ -37339,7 +37184,7 @@
         <v>1812</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>564</v>
@@ -37351,7 +37196,7 @@
         <v>501</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
@@ -37411,7 +37256,7 @@
         <v>2744</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>14</v>
@@ -37423,7 +37268,7 @@
         <v>573</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
@@ -37435,7 +37280,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>110</v>
@@ -37446,7 +37291,7 @@
         <v>134</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>14</v>
@@ -37455,10 +37300,10 @@
         <v>24019</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
@@ -37473,13 +37318,13 @@
         <v>217</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="F28" s="18">
         <v>4334</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="H28" s="17" t="s">
         <v>14</v>
@@ -37488,10 +37333,10 @@
         <v>24017</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
@@ -37503,7 +37348,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>269</v>
@@ -37512,7 +37357,7 @@
         <v>525</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>42</v>
@@ -37521,10 +37366,10 @@
         <v>24179</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
@@ -37571,16 +37416,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="F31" s="18">
         <v>1020</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="H31" s="17" t="s">
         <v>564</v>
@@ -37592,7 +37437,7 @@
         <v>429</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
@@ -37639,16 +37484,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="F33" s="18">
         <v>1302</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>14</v>
@@ -37657,10 +37502,10 @@
         <v>24013</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
@@ -37672,10 +37517,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -37683,7 +37528,7 @@
         <v>3038</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>564</v>
@@ -37692,7 +37537,7 @@
         <v>24017</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="K34" s="18" t="s">
         <v>2070</v>
@@ -37716,7 +37561,7 @@
         <v>927</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>14</v>
@@ -37725,10 +37570,10 @@
         <v>24012</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
@@ -37740,7 +37585,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>29</v>
@@ -37751,7 +37596,7 @@
         <v>3038</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>14</v>
@@ -37760,7 +37605,7 @@
         <v>24017</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="K36" s="18" t="s">
         <v>2146</v>
@@ -37778,7 +37623,7 @@
         <v>1334</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
@@ -37786,7 +37631,7 @@
         <v>7120</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>564</v>
@@ -37795,10 +37640,10 @@
         <v>24019</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
@@ -37821,7 +37666,7 @@
         <v>902</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>14</v>
@@ -37833,7 +37678,7 @@
         <v>489</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
@@ -37854,7 +37699,7 @@
         <v>208</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>14</v>
@@ -37863,10 +37708,10 @@
         <v>24179</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
@@ -37951,13 +37796,13 @@
         <v>1335</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="F42" s="18">
         <v>525</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>42</v>
@@ -37966,10 +37811,10 @@
         <v>24179</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
@@ -38025,7 +37870,7 @@
         <v>1932</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="H44" s="17" t="s">
         <v>14</v>
@@ -38037,7 +37882,7 @@
         <v>367</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
@@ -38049,16 +37894,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="F45" s="18">
         <v>5300</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="H45" s="17" t="s">
         <v>564</v>
@@ -38067,7 +37912,7 @@
         <v>24012</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="K45" s="17" t="s">
         <v>2164</v>
@@ -38152,7 +37997,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>116</v>
@@ -38163,7 +38008,7 @@
         <v>129</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>14</v>
@@ -38172,7 +38017,7 @@
         <v>24012</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="K48" s="18" t="s">
         <v>2070</v>
@@ -38187,7 +38032,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>758</v>
@@ -38196,7 +38041,7 @@
         <v>808</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="H49" s="17" t="s">
         <v>14</v>
@@ -38208,7 +38053,7 @@
         <v>324</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
@@ -38231,7 +38076,7 @@
         <v>3338</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="H50" s="18" t="s">
         <v>14</v>
@@ -38240,10 +38085,10 @@
         <v>24017</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="15"/>
@@ -38264,7 +38109,7 @@
         <v>5207</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="H51" s="17" t="s">
         <v>14</v>
@@ -38276,7 +38121,7 @@
         <v>719</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="15"/>
@@ -38326,7 +38171,7 @@
         <v>201</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
@@ -38334,7 +38179,7 @@
         <v>2725</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="H53" s="18" t="s">
         <v>14</v>
@@ -38346,7 +38191,7 @@
         <v>205</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="15"/>
@@ -38358,7 +38203,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>1692</v>
@@ -38367,7 +38212,7 @@
         <v>2002</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>14</v>
@@ -38376,10 +38221,10 @@
         <v>24013</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>2603</v>
+        <v>2559</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N54" s="15"/>
       <c r="O54" s="15"/>
@@ -38402,7 +38247,7 @@
         <v>5300</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="H55" s="18" t="s">
         <v>14</v>
@@ -38414,7 +38259,7 @@
         <v>466</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>
@@ -38435,7 +38280,7 @@
         <v>32</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="H56" s="17" t="s">
         <v>14</v>
@@ -38444,10 +38289,10 @@
         <v>24016</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N56" s="15"/>
       <c r="O56" s="15"/>
@@ -38494,10 +38339,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -38505,7 +38350,7 @@
         <v>3038</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>564</v>
@@ -38514,7 +38359,7 @@
         <v>24017</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="K58" s="18" t="s">
         <v>2164</v>
@@ -38629,7 +38474,7 @@
       <c r="J61" s="18" t="s">
         <v>2073</v>
       </c>
-      <c r="K61" s="33" t="s">
+      <c r="K61" s="32" t="s">
         <v>2117</v>
       </c>
       <c r="N61" s="15"/>
@@ -38645,13 +38490,13 @@
         <v>2071</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="F62" s="18">
         <v>433</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="H62" s="17" t="s">
         <v>14</v>
@@ -38660,10 +38505,10 @@
         <v>24016</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N62" s="15"/>
       <c r="O62" s="15"/>
@@ -38686,7 +38531,7 @@
         <v>2421</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>2080</v>
@@ -38695,7 +38540,7 @@
         <v>24153</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="K63" s="18" t="s">
         <v>2142</v>
@@ -38780,16 +38625,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="F66" s="18">
         <v>3018</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="H66" s="17" t="s">
         <v>564</v>
@@ -38798,10 +38643,10 @@
         <v>24012</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="N66" s="15"/>
       <c r="O66" s="15"/>
@@ -38812,30 +38657,30 @@
       <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="C67" s="31" t="s">
-        <v>2590</v>
-      </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="32">
+      <c r="C67" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="31">
         <v>204</v>
       </c>
-      <c r="G67" s="31" t="s">
-        <v>2591</v>
-      </c>
-      <c r="H67" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="32">
+      <c r="G67" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="31">
         <v>24016</v>
       </c>
-      <c r="J67" s="31" t="s">
+      <c r="J67" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="K67" s="31" t="s">
+      <c r="K67" s="30" t="s">
         <v>2070</v>
       </c>
       <c r="N67" s="15"/>
@@ -38859,7 +38704,7 @@
         <v>129</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>14</v>
@@ -38871,7 +38716,7 @@
         <v>229</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
@@ -38892,7 +38737,7 @@
         <v>2101</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="H69" s="17" t="s">
         <v>14</v>
@@ -38901,10 +38746,10 @@
         <v>24017</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="K69" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N69" s="15"/>
       <c r="O69" s="15"/>
@@ -38919,13 +38764,13 @@
         <v>740</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="F70" s="18">
         <v>1132</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="H70" s="17" t="s">
         <v>564</v>
@@ -38937,7 +38782,7 @@
         <v>743</v>
       </c>
       <c r="K70" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
@@ -38952,13 +38797,13 @@
         <v>740</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="F71" s="18">
         <v>2001</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="H71" s="17" t="s">
         <v>14</v>
@@ -38967,10 +38812,10 @@
         <v>24014</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="K71" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N71" s="15"/>
       <c r="O71" s="15"/>
@@ -38982,7 +38827,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>379</v>
@@ -38991,7 +38836,7 @@
         <v>1541</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="H72" s="17" t="s">
         <v>42</v>
@@ -39000,10 +38845,10 @@
         <v>24179</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="K72" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N72" s="15"/>
       <c r="O72" s="15"/>
@@ -39024,7 +38869,7 @@
         <v>2501</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="H73" s="17" t="s">
         <v>14</v>
@@ -39036,7 +38881,7 @@
         <v>525</v>
       </c>
       <c r="K73" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N73" s="15"/>
       <c r="O73" s="15"/>
@@ -39048,16 +38893,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="F74" s="18">
         <v>1106</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="H74" s="17" t="s">
         <v>564</v>
@@ -39066,10 +38911,10 @@
         <v>24016</v>
       </c>
       <c r="J74" s="17" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="K74" s="17" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="N74" s="15"/>
       <c r="O74" s="15"/>
@@ -39090,7 +38935,7 @@
         <v>1435</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="H75" s="17" t="s">
         <v>564</v>
@@ -39099,10 +38944,10 @@
         <v>24015</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="N75" s="15"/>
       <c r="O75" s="15"/>
@@ -39114,16 +38959,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="F76" s="18">
         <v>919</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="H76" s="17" t="s">
         <v>564</v>
@@ -39132,10 +38977,10 @@
         <v>24012</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="K76" s="17" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="N76" s="15"/>
       <c r="O76" s="15"/>
@@ -39202,7 +39047,7 @@
         <v>24013</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="K78" s="18" t="s">
         <v>2142</v>
@@ -39220,13 +39065,13 @@
         <v>732</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="F79" s="18">
         <v>1714</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="H79" s="17" t="s">
         <v>42</v>
@@ -39235,10 +39080,10 @@
         <v>24179</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N79" s="15"/>
       <c r="O79" s="15"/>
@@ -39259,7 +39104,7 @@
         <v>644</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="H80" s="17" t="s">
         <v>14</v>
@@ -39271,7 +39116,7 @@
         <v>735</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
@@ -39286,13 +39131,13 @@
         <v>732</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="F81" s="18">
         <v>1535</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="H81" s="17" t="s">
         <v>14</v>
@@ -39301,10 +39146,10 @@
         <v>24013</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N81" s="15"/>
       <c r="O81" s="15"/>
@@ -39327,7 +39172,7 @@
         <v>908</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="H82" s="18" t="s">
         <v>14</v>
@@ -39339,7 +39184,7 @@
         <v>472</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="N82" s="15"/>
       <c r="O82" s="15"/>
@@ -39354,7 +39199,7 @@
         <v>932</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
@@ -39362,7 +39207,7 @@
         <v>908</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>14</v>
@@ -39371,10 +39216,10 @@
         <v>24012</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N83" s="15"/>
       <c r="O83" s="15"/>
@@ -39389,13 +39234,13 @@
         <v>932</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="F84" s="18">
         <v>1729</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="H84" s="17" t="s">
         <v>564</v>
@@ -39407,7 +39252,7 @@
         <v>937</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N84" s="15"/>
       <c r="O84" s="15"/>
@@ -39422,7 +39267,7 @@
         <v>28</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
@@ -39430,7 +39275,7 @@
         <v>2744</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>14</v>
@@ -39439,10 +39284,10 @@
         <v>24017</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
@@ -39477,7 +39322,7 @@
         <v>71</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
@@ -39492,13 +39337,13 @@
         <v>28</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="F87" s="18">
         <v>3038</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="H87" s="17" t="s">
         <v>564</v>
@@ -39507,7 +39352,7 @@
         <v>24017</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="K87" s="17" t="s">
         <v>2070</v>
@@ -39609,7 +39454,7 @@
         <v>2744</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="H90" s="17" t="s">
         <v>564</v>
@@ -39636,7 +39481,7 @@
         <v>2074</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="F91" s="18">
         <v>40</v>
@@ -39651,10 +39496,10 @@
         <v>24017</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
@@ -39675,7 +39520,7 @@
         <v>2904</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="H92" s="17" t="s">
         <v>564</v>
@@ -39684,7 +39529,7 @@
         <v>24012</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="K92" s="17" t="s">
         <v>2070</v>
@@ -39784,7 +39629,7 @@
         <v>908</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="H95" s="18" t="s">
         <v>14</v>
@@ -39796,7 +39641,7 @@
         <v>474</v>
       </c>
       <c r="K95" s="18" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
@@ -39808,7 +39653,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="C96" s="17" t="s">
         <v>93</v>
@@ -39817,7 +39662,7 @@
         <v>434</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="H96" s="17" t="s">
         <v>42</v>
@@ -39826,10 +39671,10 @@
         <v>24179</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
@@ -39857,7 +39702,7 @@
       <c r="H97" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I97" s="30">
+      <c r="I97" s="29">
         <v>24013</v>
       </c>
       <c r="J97" s="18" t="s">
@@ -39876,16 +39721,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="F98" s="18">
         <v>3113</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="H98" s="17" t="s">
         <v>564</v>
@@ -39894,7 +39739,7 @@
         <v>24012</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="K98" s="17" t="s">
         <v>2070</v>
@@ -39918,7 +39763,7 @@
         <v>1353</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="H99" s="17" t="s">
         <v>564</v>
@@ -39927,10 +39772,10 @@
         <v>24016</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="K99" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
@@ -40103,7 +39948,7 @@
         <v>1320</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="H104" s="17" t="s">
         <v>564</v>
@@ -40115,7 +39960,7 @@
         <v>548</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
@@ -40127,7 +39972,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="C105" s="17" t="s">
         <v>761</v>
@@ -40145,10 +39990,10 @@
         <v>24017</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="K105" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
@@ -40160,16 +40005,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="F106" s="18">
         <v>2522</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="H106" s="17" t="s">
         <v>14</v>
@@ -40181,7 +40026,7 @@
         <v>722</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
@@ -40243,7 +40088,7 @@
         <v>2315</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="H108" s="18" t="s">
         <v>14</v>
@@ -40267,10 +40112,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
@@ -40278,7 +40123,7 @@
         <v>707</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="H109" s="18" t="s">
         <v>564</v>
@@ -40287,10 +40132,10 @@
         <v>24012</v>
       </c>
       <c r="J109" s="18" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="K109" s="18" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
@@ -40387,7 +40232,7 @@
         <v>5300</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="H112" s="18" t="s">
         <v>14</v>
@@ -40396,10 +40241,10 @@
         <v>24012</v>
       </c>
       <c r="J112" s="18" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="N112" s="15"/>
       <c r="O112" s="15"/>
@@ -40420,7 +40265,7 @@
         <v>2607</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>2568</v>
+        <v>2554</v>
       </c>
       <c r="H113" s="17" t="s">
         <v>564</v>
@@ -40432,7 +40277,7 @@
         <v>267</v>
       </c>
       <c r="K113" s="17" t="s">
-        <v>2564</v>
+        <v>2550</v>
       </c>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
@@ -40482,7 +40327,7 @@
         <v>82</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="18"/>
@@ -40490,7 +40335,7 @@
         <v>4435</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="H115" s="18" t="s">
         <v>14</v>
@@ -40499,10 +40344,10 @@
         <v>24012</v>
       </c>
       <c r="J115" s="18" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="K115" s="18" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
@@ -40514,7 +40359,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="C116" s="17" t="s">
         <v>158</v>
@@ -40523,7 +40368,7 @@
         <v>1171</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="H116" s="17" t="s">
         <v>564</v>
@@ -40535,7 +40380,7 @@
         <v>242</v>
       </c>
       <c r="K116" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
@@ -40547,7 +40392,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="C117" s="17" t="s">
         <v>656</v>
@@ -40556,7 +40401,7 @@
         <v>1310</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="H117" s="17" t="s">
         <v>564</v>
@@ -40565,10 +40410,10 @@
         <v>24017</v>
       </c>
       <c r="J117" s="17" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="K117" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N117" s="15"/>
       <c r="O117" s="15"/>
@@ -40580,7 +40425,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="C118" s="17" t="s">
         <v>288</v>
@@ -40589,7 +40434,7 @@
         <v>632</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="H118" s="17" t="s">
         <v>14</v>
@@ -40598,10 +40443,10 @@
         <v>24013</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="K118" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N118" s="15"/>
       <c r="O118" s="15"/>
@@ -40616,13 +40461,13 @@
         <v>1567</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="F119" s="18">
         <v>1401</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="H119" s="17" t="s">
         <v>14</v>
@@ -40631,10 +40476,10 @@
         <v>24014</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="K119" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
@@ -40719,13 +40564,13 @@
         <v>2168</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="F122" s="18">
         <v>2001</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="H122" s="17" t="s">
         <v>564</v>
@@ -40734,10 +40579,10 @@
         <v>24014</v>
       </c>
       <c r="J122" s="17" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="K122" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N122" s="15"/>
       <c r="O122" s="15"/>
@@ -40793,7 +40638,7 @@
         <v>111</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="H124" s="17" t="s">
         <v>14</v>
@@ -40805,7 +40650,7 @@
         <v>391</v>
       </c>
       <c r="K124" s="19" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N124" s="15"/>
       <c r="O124" s="15"/>
@@ -40839,7 +40684,7 @@
       <c r="J125" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="K125" s="33" t="s">
+      <c r="K125" s="32" t="s">
         <v>2070</v>
       </c>
       <c r="N125" s="15"/>
@@ -40852,10 +40697,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="18"/>
@@ -40863,7 +40708,7 @@
         <v>412</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="H126" s="18" t="s">
         <v>2080</v>
@@ -40872,10 +40717,10 @@
         <v>24153</v>
       </c>
       <c r="J126" s="18" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="K126" s="18" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="N126" s="15"/>
       <c r="O126" s="15"/>
@@ -40887,10 +40732,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="D127" s="18"/>
       <c r="E127" s="18"/>
@@ -40898,7 +40743,7 @@
         <v>416</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="H127" s="18" t="s">
         <v>14</v>
@@ -40907,7 +40752,7 @@
         <v>24016</v>
       </c>
       <c r="J127" s="18" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="K127" s="18" t="s">
         <v>2164</v>
@@ -40966,7 +40811,7 @@
         <v>1705</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="H129" s="17" t="s">
         <v>42</v>
@@ -40978,7 +40823,7 @@
         <v>363</v>
       </c>
       <c r="K129" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N129" s="15"/>
       <c r="O129" s="15"/>
@@ -40990,7 +40835,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>761</v>
@@ -40999,7 +40844,7 @@
         <v>1145</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="H130" s="17" t="s">
         <v>14</v>
@@ -41008,10 +40853,10 @@
         <v>24013</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="K130" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N130" s="15"/>
       <c r="O130" s="15"/>
@@ -41069,7 +40914,7 @@
         <v>3105</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="H132" s="18" t="s">
         <v>14</v>
@@ -41081,7 +40926,7 @@
         <v>482</v>
       </c>
       <c r="K132" s="18" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="N132" s="15"/>
       <c r="O132" s="15"/>
@@ -41104,7 +40949,7 @@
         <v>2518</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="H133" s="18" t="s">
         <v>14</v>
@@ -41113,10 +40958,10 @@
         <v>24012</v>
       </c>
       <c r="J133" s="18" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="K133" s="18" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N133" s="15"/>
       <c r="O133" s="15"/>
@@ -41172,7 +41017,7 @@
         <v>2810</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="H135" s="17" t="s">
         <v>14</v>
@@ -41184,7 +41029,7 @@
         <v>532</v>
       </c>
       <c r="K135" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N135" s="15"/>
       <c r="O135" s="15"/>
@@ -41254,7 +41099,7 @@
         <v>485</v>
       </c>
       <c r="K137" s="18" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="N137" s="15"/>
       <c r="O137" s="15"/>
@@ -41266,16 +41111,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>2561</v>
+        <v>2547</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>2562</v>
+        <v>2548</v>
       </c>
       <c r="F138" s="18">
         <v>4825</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>2563</v>
+        <v>2549</v>
       </c>
       <c r="H138" s="17" t="s">
         <v>564</v>
@@ -41284,10 +41129,10 @@
         <v>24018</v>
       </c>
       <c r="J138" s="27" t="s">
-        <v>2567</v>
+        <v>2553</v>
       </c>
       <c r="K138" s="17" t="s">
-        <v>2564</v>
+        <v>2550</v>
       </c>
       <c r="N138" s="15"/>
       <c r="O138" s="15"/>
@@ -41299,16 +41144,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="F139" s="18">
         <v>1220</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="H139" s="17" t="s">
         <v>14</v>
@@ -41317,10 +41162,10 @@
         <v>24017</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="K139" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N139" s="15"/>
       <c r="O139" s="15"/>
@@ -41335,13 +41180,13 @@
         <v>383</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>2544</v>
+        <v>2538</v>
       </c>
       <c r="F140" s="18">
         <v>1118</v>
       </c>
       <c r="G140" s="28" t="s">
-        <v>2545</v>
+        <v>2539</v>
       </c>
       <c r="H140" s="17" t="s">
         <v>14</v>
@@ -41350,10 +41195,10 @@
         <v>24014</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>2546</v>
+        <v>2540</v>
       </c>
       <c r="K140" s="28" t="s">
-        <v>2547</v>
+        <v>2541</v>
       </c>
       <c r="N140" s="15"/>
       <c r="O140" s="15"/>
@@ -41444,7 +41289,7 @@
         <v>2006</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>2571</v>
+        <v>2555</v>
       </c>
       <c r="H143" s="17" t="s">
         <v>564</v>
@@ -41453,10 +41298,10 @@
         <v>24016</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>2572</v>
+        <v>2556</v>
       </c>
       <c r="K143" s="17" t="s">
-        <v>2564</v>
+        <v>2550</v>
       </c>
       <c r="N143" s="15"/>
       <c r="O143" s="15"/>
@@ -41489,7 +41334,7 @@
         <v>528</v>
       </c>
       <c r="K144" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N144" s="15"/>
       <c r="O144" s="15"/>
@@ -41539,7 +41384,7 @@
         <v>493</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="18"/>
@@ -41547,7 +41392,7 @@
         <v>5300</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="H146" s="18" t="s">
         <v>14</v>
@@ -41556,10 +41401,10 @@
         <v>24012</v>
       </c>
       <c r="J146" s="18" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="K146" s="18" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N146" s="15"/>
       <c r="O146" s="15"/>
@@ -41619,7 +41464,7 @@
         <v>3038</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="H148" s="17" t="s">
         <v>14</v>
@@ -41631,7 +41476,7 @@
         <v>75</v>
       </c>
       <c r="K148" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N148" s="15"/>
       <c r="O148" s="15"/>
@@ -41652,7 +41497,7 @@
         <v>3430</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="H149" s="17" t="s">
         <v>564</v>
@@ -41692,14 +41537,14 @@
       <c r="H150" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="I150" s="30">
+      <c r="I150" s="29">
         <v>24017</v>
       </c>
       <c r="J150" s="18" t="s">
         <v>71</v>
       </c>
       <c r="K150" s="18" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="N150" s="15"/>
       <c r="O150" s="15"/>
@@ -41714,7 +41559,7 @@
         <v>1065</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="18"/>
@@ -41722,7 +41567,7 @@
         <v>423</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="H151" s="18" t="s">
         <v>14</v>
@@ -41731,10 +41576,10 @@
         <v>24016</v>
       </c>
       <c r="J151" s="18" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="K151" s="23" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N151" s="15"/>
       <c r="O151" s="15"/>
@@ -41746,10 +41591,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="18"/>
@@ -41757,7 +41602,7 @@
         <v>608</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="H152" s="18" t="s">
         <v>564</v>
@@ -41769,7 +41614,7 @@
         <v>2141</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N152" s="15"/>
       <c r="O152" s="15"/>
@@ -41784,13 +41629,13 @@
         <v>1998</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="F153" s="18">
         <v>3038</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="H153" s="17" t="s">
         <v>564</v>
@@ -41799,7 +41644,7 @@
         <v>24017</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="K153" s="17" t="s">
         <v>2164</v>
@@ -41823,7 +41668,7 @@
         <v>1117</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="H154" s="17" t="s">
         <v>14</v>
@@ -41835,7 +41680,7 @@
         <v>240</v>
       </c>
       <c r="K154" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N154" s="15"/>
       <c r="O154" s="15"/>
@@ -41889,13 +41734,13 @@
         <v>419</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="F156" s="18">
         <v>1916</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="H156" s="17" t="s">
         <v>14</v>
@@ -41904,10 +41749,10 @@
         <v>24012</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="K156" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N156" s="15"/>
       <c r="O156" s="15"/>
@@ -41928,7 +41773,7 @@
         <v>1358</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="H157" s="17" t="s">
         <v>14</v>
@@ -41940,7 +41785,7 @@
         <v>726</v>
       </c>
       <c r="K157" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N157" s="15"/>
       <c r="O157" s="15"/>
@@ -41963,7 +41808,7 @@
         <v>2153</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>2604</v>
+        <v>2560</v>
       </c>
       <c r="H158" s="18" t="s">
         <v>564</v>
@@ -41990,13 +41835,13 @@
         <v>2187</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="F159" s="18">
         <v>433</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="H159" s="17" t="s">
         <v>564</v>
@@ -42005,7 +41850,7 @@
         <v>24016</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="K159" s="17" t="s">
         <v>2070</v>
@@ -42029,7 +41874,7 @@
         <v>4902</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>2565</v>
+        <v>2551</v>
       </c>
       <c r="H160" s="17" t="s">
         <v>564</v>
@@ -42038,10 +41883,10 @@
         <v>24018</v>
       </c>
       <c r="J160" s="27" t="s">
-        <v>2566</v>
+        <v>2552</v>
       </c>
       <c r="K160" s="17" t="s">
-        <v>2564</v>
+        <v>2550</v>
       </c>
       <c r="N160" s="15"/>
       <c r="O160" s="15"/>
@@ -42053,7 +41898,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="C161" s="17" t="s">
         <v>379</v>
@@ -42062,7 +41907,7 @@
         <v>1708</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="H161" s="17" t="s">
         <v>42</v>
@@ -42071,10 +41916,10 @@
         <v>24179</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="K161" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N161" s="15"/>
       <c r="O161" s="15"/>
@@ -42086,16 +41931,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="F162" s="18">
         <v>1008</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="H162" s="17" t="s">
         <v>14</v>
@@ -42104,10 +41949,10 @@
         <v>24013</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="K162" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N162" s="15"/>
       <c r="O162" s="15"/>
@@ -42154,7 +41999,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="C164" s="17" t="s">
         <v>1074</v>
@@ -42163,7 +42008,7 @@
         <v>1517</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="H164" s="17" t="s">
         <v>14</v>
@@ -42175,7 +42020,7 @@
         <v>1101</v>
       </c>
       <c r="K164" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N164" s="15"/>
       <c r="O164" s="15"/>
@@ -42233,7 +42078,7 @@
         <v>32</v>
       </c>
       <c r="G166" s="18" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="H166" s="18" t="s">
         <v>14</v>
@@ -42245,7 +42090,7 @@
         <v>333</v>
       </c>
       <c r="K166" s="18" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="N166" s="15"/>
       <c r="O166" s="15"/>
@@ -42292,7 +42137,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="C168" s="17" t="s">
         <v>634</v>
@@ -42301,7 +42146,7 @@
         <v>3560</v>
       </c>
       <c r="G168" s="17" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="H168" s="17" t="s">
         <v>14</v>
@@ -42310,10 +42155,10 @@
         <v>24014</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="K168" s="17" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="N168" s="15"/>
       <c r="O168" s="15"/>
@@ -42367,7 +42212,7 @@
         <v>173</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="D170" s="18"/>
       <c r="E170" s="18"/>
@@ -42375,19 +42220,19 @@
         <v>7120</v>
       </c>
       <c r="G170" s="18" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="H170" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I170" s="30">
+      <c r="I170" s="29">
         <v>24019</v>
       </c>
       <c r="J170" s="18" t="s">
         <v>463</v>
       </c>
       <c r="K170" s="22" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="N170" s="15"/>
       <c r="O170" s="15"/>
@@ -42399,7 +42244,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="C171" s="18" t="s">
         <v>1133</v>
@@ -42410,7 +42255,7 @@
         <v>2744</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="H171" s="18" t="s">
         <v>14</v>
@@ -42434,16 +42279,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>2549</v>
+        <v>2543</v>
       </c>
       <c r="F172" s="18">
         <v>2302</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>2550</v>
+        <v>2544</v>
       </c>
       <c r="H172" s="17" t="s">
         <v>14</v>
@@ -42452,10 +42297,10 @@
         <v>24015</v>
       </c>
       <c r="J172" s="17" t="s">
-        <v>2551</v>
+        <v>2545</v>
       </c>
       <c r="K172" s="17" t="s">
-        <v>2552</v>
+        <v>2546</v>
       </c>
       <c r="N172" s="15"/>
       <c r="O172" s="15"/>
@@ -42511,7 +42356,7 @@
         <v>1701</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="H174" s="17" t="s">
         <v>564</v>
@@ -42523,7 +42368,7 @@
         <v>399</v>
       </c>
       <c r="K174" s="17" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="N174" s="15"/>
       <c r="O174" s="15"/>
@@ -42544,7 +42389,7 @@
         <v>4029</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="H175" s="17" t="s">
         <v>14</v>
@@ -42553,10 +42398,10 @@
         <v>24017</v>
       </c>
       <c r="J175" s="17" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="K175" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N175" s="15"/>
       <c r="O175" s="15"/>
@@ -42577,7 +42422,7 @@
         <v>1020</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="H176" s="17" t="s">
         <v>14</v>
@@ -42586,10 +42431,10 @@
         <v>24013</v>
       </c>
       <c r="J176" s="17" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="K176" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N176" s="15"/>
       <c r="O176" s="15"/>
@@ -42610,7 +42455,7 @@
         <v>1020</v>
       </c>
       <c r="G177" s="17" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="H177" s="17" t="s">
         <v>14</v>
@@ -42622,7 +42467,7 @@
         <v>352</v>
       </c>
       <c r="K177" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N177" s="15"/>
       <c r="O177" s="15"/>
@@ -42643,7 +42488,7 @@
         <v>1547</v>
       </c>
       <c r="G178" s="17" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="H178" s="17" t="s">
         <v>14</v>
@@ -42655,7 +42500,7 @@
         <v>739</v>
       </c>
       <c r="K178" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N178" s="15"/>
       <c r="O178" s="15"/>
@@ -42717,7 +42562,7 @@
         <v>3038</v>
       </c>
       <c r="G180" s="18" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="H180" s="18" t="s">
         <v>14</v>
@@ -42822,7 +42667,7 @@
         <v>1020</v>
       </c>
       <c r="G183" s="18" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="H183" s="18" t="s">
         <v>14</v>
@@ -42831,10 +42676,10 @@
         <v>24013</v>
       </c>
       <c r="J183" s="18" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="K183" s="18" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="N183" s="15"/>
       <c r="O183" s="15"/>
@@ -42855,7 +42700,7 @@
         <v>155</v>
       </c>
       <c r="G184" s="17" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="H184" s="17" t="s">
         <v>14</v>
@@ -42867,7 +42712,7 @@
         <v>376</v>
       </c>
       <c r="K184" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="N184" s="15"/>
       <c r="O184" s="15"/>
@@ -42879,7 +42724,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="C185" s="18" t="s">
         <v>1300</v>
@@ -42890,7 +42735,7 @@
         <v>218</v>
       </c>
       <c r="G185" s="18" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="H185" s="18" t="s">
         <v>2080</v>
@@ -42899,7 +42744,7 @@
         <v>24153</v>
       </c>
       <c r="J185" s="18" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="K185" s="18" t="s">
         <v>2142</v>
@@ -42956,7 +42801,7 @@
         <v>1155</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D187" s="18"/>
       <c r="E187" s="18"/>
@@ -42964,7 +42809,7 @@
         <v>1630</v>
       </c>
       <c r="G187" s="18" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="H187" s="18" t="s">
         <v>564</v>
@@ -42976,7 +42821,7 @@
         <v>1157</v>
       </c>
       <c r="K187" s="18" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="N187" s="15"/>
       <c r="O187" s="15"/>
@@ -42988,10 +42833,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="D188" s="18"/>
       <c r="E188" s="18"/>
@@ -42999,19 +42844,19 @@
         <v>3038</v>
       </c>
       <c r="G188" s="18" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="H188" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="I188" s="30">
+      <c r="I188" s="29">
         <v>24017</v>
       </c>
       <c r="J188" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K188" s="18" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="N188" s="15"/>
       <c r="O188" s="15"/>
@@ -43023,7 +42868,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="C189" s="17" t="s">
         <v>211</v>
@@ -43032,7 +42877,7 @@
         <v>1702</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="H189" s="17" t="s">
         <v>14</v>
@@ -43044,7 +42889,7 @@
         <v>342</v>
       </c>
       <c r="K189" s="17" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="N189" s="15"/>
       <c r="O189" s="15"/>
@@ -43056,7 +42901,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="C190" s="17" t="s">
         <v>533</v>
@@ -43065,7 +42910,7 @@
         <v>1502</v>
       </c>
       <c r="G190" s="17" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="H190" s="17" t="s">
         <v>564</v>
@@ -43077,7 +42922,7 @@
         <v>535</v>
       </c>
       <c r="K190" s="17" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="N190" s="15"/>
       <c r="O190" s="15"/>
@@ -43089,7 +42934,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="C191" s="17" t="s">
         <v>369</v>
@@ -43098,7 +42943,7 @@
         <v>2714</v>
       </c>
       <c r="G191" s="17" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="H191" s="17" t="s">
         <v>14</v>
@@ -43110,7 +42955,7 @@
         <v>372</v>
       </c>
       <c r="K191" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N191" s="15"/>
       <c r="O191" s="15"/>
@@ -43122,16 +42967,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="F192" s="18">
         <v>540</v>
       </c>
       <c r="G192" s="17" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="H192" s="17" t="s">
         <v>14</v>
@@ -43140,10 +42985,10 @@
         <v>24016</v>
       </c>
       <c r="J192" s="17" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="K192" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N192" s="15"/>
       <c r="O192" s="15"/>
@@ -43155,10 +43000,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="D193" s="18"/>
       <c r="E193" s="18"/>
@@ -43166,7 +43011,7 @@
         <v>5300</v>
       </c>
       <c r="G193" s="18" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="H193" s="18" t="s">
         <v>14</v>
@@ -43175,10 +43020,10 @@
         <v>24012</v>
       </c>
       <c r="J193" s="18" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="K193" s="18" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N193" s="15"/>
       <c r="O193" s="15"/>
@@ -43190,7 +43035,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="17" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="C194" s="17" t="s">
         <v>559</v>
@@ -43199,7 +43044,7 @@
         <v>1020</v>
       </c>
       <c r="G194" s="17" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="H194" s="17" t="s">
         <v>14</v>
@@ -43208,10 +43053,10 @@
         <v>24013</v>
       </c>
       <c r="J194" s="17" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="K194" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N194" s="15"/>
       <c r="O194" s="15"/>
@@ -43265,13 +43110,13 @@
         <v>354</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="F196" s="18">
         <v>919</v>
       </c>
       <c r="G196" s="17" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="H196" s="17" t="s">
         <v>14</v>
@@ -43280,10 +43125,10 @@
         <v>24013</v>
       </c>
       <c r="J196" s="17" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="K196" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="N196" s="15"/>
       <c r="O196" s="15"/>
@@ -43407,7 +43252,7 @@
         <v>1185</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="D200" s="18"/>
       <c r="E200" s="18"/>
@@ -43415,7 +43260,7 @@
         <v>3657</v>
       </c>
       <c r="G200" s="18" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="H200" s="18" t="s">
         <v>14</v>
@@ -43424,10 +43269,10 @@
         <v>24012</v>
       </c>
       <c r="J200" s="18" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="K200" s="18" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N200" s="15"/>
       <c r="O200" s="15"/>
@@ -43442,13 +43287,13 @@
         <v>313</v>
       </c>
       <c r="C201" s="27" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="F201" s="18">
         <v>119</v>
       </c>
       <c r="G201" s="17" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="H201" s="17" t="s">
         <v>14</v>
@@ -43460,7 +43305,7 @@
         <v>315</v>
       </c>
       <c r="K201" s="19" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N201" s="15"/>
       <c r="O201" s="15"/>
@@ -43468,686 +43313,292 @@
       <c r="Q201" s="15"/>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G202" s="29" t="s">
-        <v>2575</v>
-      </c>
+      <c r="A202" s="19"/>
+      <c r="K202" s="17"/>
       <c r="N202" s="15"/>
       <c r="O202" s="15"/>
       <c r="P202" s="15"/>
       <c r="Q202" s="15"/>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B203" s="17" t="s">
-        <v>2553</v>
-      </c>
-      <c r="C203" s="17" t="s">
-        <v>2554</v>
-      </c>
-      <c r="F203" s="18" t="s">
-        <v>2555</v>
-      </c>
-      <c r="G203" s="17" t="s">
-        <v>2556</v>
-      </c>
-      <c r="H203" s="17" t="s">
-        <v>2557</v>
-      </c>
-      <c r="I203" s="18" t="s">
-        <v>2558</v>
-      </c>
-      <c r="J203" s="17" t="s">
-        <v>2559</v>
-      </c>
-      <c r="K203" s="19" t="s">
-        <v>2560</v>
-      </c>
       <c r="N203" s="15"/>
       <c r="O203" s="15"/>
       <c r="P203" s="15"/>
       <c r="Q203" s="15"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A204" s="17">
-        <v>1</v>
-      </c>
-      <c r="B204" s="17" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>1388</v>
-      </c>
-      <c r="F204" s="18">
-        <v>4902</v>
-      </c>
-      <c r="G204" s="17" t="s">
-        <v>2565</v>
-      </c>
-      <c r="H204" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="I204" s="18">
-        <v>24018</v>
-      </c>
-      <c r="J204" s="27" t="s">
-        <v>2566</v>
-      </c>
-      <c r="K204" s="19" t="s">
-        <v>2564</v>
-      </c>
+      <c r="B204" s="33"/>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="34"/>
+      <c r="G204" s="33"/>
+      <c r="H204" s="33"/>
+      <c r="I204" s="34"/>
       <c r="N204" s="15"/>
       <c r="O204" s="15"/>
       <c r="P204" s="15"/>
       <c r="Q204" s="15"/>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A205" s="17">
-        <v>2</v>
-      </c>
-      <c r="B205" s="17" t="s">
-        <v>2587</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>2588</v>
-      </c>
-      <c r="F205" s="18">
-        <v>204</v>
-      </c>
-      <c r="G205" s="17" t="s">
-        <v>2589</v>
-      </c>
-      <c r="H205" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="I205" s="18">
-        <v>24016</v>
-      </c>
-      <c r="J205" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="K205" s="19" t="s">
-        <v>2070</v>
-      </c>
+      <c r="A205" s="19"/>
+      <c r="B205" s="37"/>
+      <c r="C205" s="37"/>
+      <c r="D205" s="37"/>
+      <c r="E205" s="37"/>
+      <c r="F205" s="37"/>
+      <c r="G205" s="37"/>
+      <c r="H205" s="37"/>
+      <c r="I205" s="37"/>
+      <c r="J205" s="16"/>
       <c r="N205" s="15"/>
       <c r="O205" s="15"/>
       <c r="P205" s="15"/>
       <c r="Q205" s="15"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A206" s="17">
-        <v>3</v>
-      </c>
-      <c r="B206" s="17" t="s">
-        <v>2576</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F206" s="18">
-        <v>2210</v>
-      </c>
-      <c r="G206" s="17" t="s">
-        <v>2578</v>
-      </c>
-      <c r="H206" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="I206" s="18">
-        <v>24012</v>
-      </c>
-      <c r="J206" s="17" t="s">
-        <v>2579</v>
-      </c>
-      <c r="K206" s="19" t="s">
-        <v>2580</v>
-      </c>
+      <c r="A206" s="19"/>
+      <c r="B206" s="37"/>
+      <c r="C206" s="37"/>
+      <c r="D206" s="37"/>
+      <c r="E206" s="37"/>
+      <c r="F206" s="37"/>
+      <c r="G206" s="37"/>
+      <c r="H206" s="37"/>
+      <c r="I206" s="37"/>
+      <c r="J206" s="16"/>
       <c r="N206" s="15"/>
       <c r="O206" s="15"/>
       <c r="P206" s="15"/>
       <c r="Q206" s="15"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A207" s="17">
-        <v>4</v>
-      </c>
-      <c r="B207" s="17" t="s">
-        <v>2582</v>
-      </c>
-      <c r="C207" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F207" s="18">
-        <v>810</v>
-      </c>
-      <c r="G207" s="17" t="s">
-        <v>2583</v>
-      </c>
-      <c r="H207" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I207" s="18">
-        <v>24013</v>
-      </c>
-      <c r="J207" s="17" t="s">
-        <v>2584</v>
-      </c>
-      <c r="K207" s="19" t="s">
-        <v>2278</v>
-      </c>
+      <c r="A207" s="19"/>
+      <c r="B207" s="37"/>
+      <c r="C207" s="37"/>
+      <c r="D207" s="37"/>
+      <c r="E207" s="37"/>
+      <c r="F207" s="37"/>
+      <c r="G207" s="37"/>
+      <c r="H207" s="37"/>
+      <c r="I207" s="37"/>
+      <c r="J207" s="16"/>
       <c r="N207" s="15"/>
       <c r="O207" s="15"/>
       <c r="P207" s="15"/>
       <c r="Q207" s="15"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A208" s="17">
-        <v>5</v>
-      </c>
-      <c r="B208" s="17" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C208" s="17" t="s">
-        <v>2585</v>
-      </c>
-      <c r="F208" s="18">
-        <v>1705</v>
-      </c>
-      <c r="G208" s="17" t="s">
-        <v>2586</v>
-      </c>
-      <c r="H208" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="I208" s="30">
-        <v>24013</v>
-      </c>
-      <c r="J208" s="17" t="s">
-        <v>2524</v>
-      </c>
-      <c r="K208" s="19" t="s">
-        <v>2164</v>
-      </c>
+      <c r="A208" s="19"/>
+      <c r="B208" s="37"/>
+      <c r="C208" s="37"/>
+      <c r="D208" s="37"/>
+      <c r="E208" s="37"/>
+      <c r="F208" s="37"/>
+      <c r="G208" s="37"/>
+      <c r="H208" s="37"/>
+      <c r="I208" s="37"/>
+      <c r="J208" s="16"/>
       <c r="N208" s="15"/>
       <c r="O208" s="15"/>
       <c r="P208" s="15"/>
       <c r="Q208" s="15"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A209" s="17">
-        <v>6</v>
-      </c>
-      <c r="B209" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="C209" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F209" s="18">
-        <v>415</v>
-      </c>
-      <c r="G209" s="17" t="s">
-        <v>2581</v>
-      </c>
-      <c r="H209" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="I209" s="18">
-        <v>24016</v>
-      </c>
-      <c r="J209" s="17" t="s">
-        <v>576</v>
-      </c>
-      <c r="K209" s="19" t="s">
-        <v>2580</v>
-      </c>
+    <row r="209" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B209" s="35"/>
+      <c r="C209" s="35"/>
+      <c r="D209" s="35"/>
+      <c r="E209" s="35"/>
+      <c r="F209" s="36"/>
+      <c r="G209" s="35"/>
+      <c r="H209" s="35"/>
+      <c r="I209" s="36"/>
       <c r="N209" s="15"/>
       <c r="O209" s="15"/>
       <c r="P209" s="15"/>
       <c r="Q209" s="15"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A210" s="17">
-        <v>7</v>
-      </c>
-      <c r="B210" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="C210" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F210" s="18">
-        <v>2329</v>
-      </c>
-      <c r="G210" s="17" t="s">
-        <v>2569</v>
-      </c>
-      <c r="H210" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="I210" s="18">
-        <v>24015</v>
-      </c>
-      <c r="J210" s="17" t="s">
-        <v>2570</v>
-      </c>
-      <c r="K210" s="19" t="s">
-        <v>2564</v>
-      </c>
+    <row r="210" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N210" s="15"/>
       <c r="O210" s="15"/>
       <c r="P210" s="15"/>
       <c r="Q210" s="15"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A211" s="17">
-        <v>8</v>
-      </c>
-      <c r="B211" s="17" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C211" s="17" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F211" s="18">
-        <v>1617</v>
-      </c>
-      <c r="G211" s="17" t="s">
-        <v>2573</v>
-      </c>
-      <c r="H211" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="I211" s="18">
-        <v>24016</v>
-      </c>
-      <c r="J211" s="17" t="s">
-        <v>2574</v>
-      </c>
-      <c r="K211" s="19" t="s">
-        <v>2564</v>
-      </c>
+    <row r="211" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N211" s="15"/>
       <c r="O211" s="15"/>
       <c r="P211" s="15"/>
       <c r="Q211" s="15"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B212" s="34"/>
-      <c r="C212" s="34"/>
-      <c r="D212" s="34"/>
-      <c r="E212" s="34"/>
-      <c r="F212" s="35"/>
-      <c r="G212" s="40" t="s">
-        <v>2597</v>
-      </c>
-      <c r="H212" s="34"/>
-      <c r="I212" s="35"/>
-      <c r="J212" s="34"/>
-      <c r="K212" s="39"/>
+    <row r="212" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N212" s="15"/>
       <c r="O212" s="15"/>
       <c r="P212" s="15"/>
       <c r="Q212" s="15"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A213" s="17">
-        <v>1</v>
-      </c>
-      <c r="B213" s="34" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C213" s="34" t="s">
-        <v>2232</v>
-      </c>
-      <c r="D213" s="34"/>
-      <c r="E213" s="34"/>
-      <c r="F213" s="35">
-        <v>6299</v>
-      </c>
-      <c r="G213" s="34" t="s">
-        <v>2233</v>
-      </c>
-      <c r="H213" s="34" t="s">
-        <v>1252</v>
-      </c>
-      <c r="I213" s="35">
-        <v>24175</v>
-      </c>
-      <c r="J213" s="34" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K213" s="39" t="s">
-        <v>2594</v>
-      </c>
+    <row r="213" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N213" s="15"/>
       <c r="O213" s="15"/>
       <c r="P213" s="15"/>
       <c r="Q213" s="15"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A214" s="19">
-        <v>2</v>
-      </c>
-      <c r="B214" s="17" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>2542</v>
-      </c>
-      <c r="F214" s="18">
-        <v>96</v>
-      </c>
-      <c r="G214" s="17" t="s">
-        <v>2596</v>
-      </c>
-      <c r="H214" s="17" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I214" s="20">
-        <v>24127</v>
-      </c>
-      <c r="J214" s="17" t="s">
-        <v>2543</v>
-      </c>
-      <c r="K214" s="17" t="s">
-        <v>2594</v>
-      </c>
+    <row r="214" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N214" s="15"/>
       <c r="O214" s="15"/>
       <c r="P214" s="15"/>
       <c r="Q214" s="15"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A215" s="19">
-        <v>3</v>
-      </c>
-      <c r="B215" s="17" t="s">
-        <v>2602</v>
-      </c>
-      <c r="C215" s="17" t="s">
-        <v>2598</v>
-      </c>
-      <c r="F215" s="18" t="s">
-        <v>2599</v>
-      </c>
-      <c r="G215" s="17" t="s">
-        <v>2600</v>
-      </c>
-      <c r="H215" s="17" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I215" s="20">
-        <v>24127</v>
-      </c>
-      <c r="J215" s="17" t="s">
-        <v>2601</v>
-      </c>
-      <c r="K215" s="17" t="s">
-        <v>2593</v>
-      </c>
+    <row r="215" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N215" s="15"/>
       <c r="O215" s="15"/>
       <c r="P215" s="15"/>
       <c r="Q215" s="15"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A216" s="19">
-        <v>4</v>
-      </c>
-      <c r="B216" s="38" t="s">
-        <v>2168</v>
-      </c>
-      <c r="C216" s="38" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D216" s="38"/>
-      <c r="E216" s="38"/>
-      <c r="F216" s="24">
-        <v>2330</v>
-      </c>
-      <c r="G216" s="38" t="s">
-        <v>2592</v>
-      </c>
-      <c r="H216" s="38" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I216" s="24">
-        <v>24127</v>
-      </c>
-      <c r="J216" s="17" t="s">
-        <v>2524</v>
-      </c>
-      <c r="K216" s="17" t="s">
-        <v>2593</v>
-      </c>
+    <row r="216" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N216" s="15"/>
       <c r="O216" s="15"/>
       <c r="P216" s="15"/>
       <c r="Q216" s="15"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A217" s="19">
-        <v>5</v>
-      </c>
-      <c r="B217" s="17" t="s">
-        <v>2168</v>
-      </c>
-      <c r="C217" s="17" t="s">
-        <v>2541</v>
-      </c>
-      <c r="F217" s="18">
-        <v>2129</v>
-      </c>
-      <c r="G217" s="17" t="s">
-        <v>2592</v>
-      </c>
-      <c r="H217" s="17" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I217" s="18">
-        <v>24127</v>
-      </c>
-      <c r="J217" s="17" t="s">
-        <v>2524</v>
-      </c>
-      <c r="K217" s="17" t="s">
-        <v>2594</v>
-      </c>
+    <row r="217" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N217" s="15"/>
       <c r="O217" s="15"/>
       <c r="P217" s="15"/>
       <c r="Q217" s="15"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A218" s="19"/>
-      <c r="K218" s="17"/>
+    <row r="218" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N218" s="15"/>
       <c r="O218" s="15"/>
       <c r="P218" s="15"/>
       <c r="Q218" s="15"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N219" s="15"/>
       <c r="O219" s="15"/>
       <c r="P219" s="15"/>
       <c r="Q219" s="15"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B220" s="34"/>
-      <c r="C220" s="34"/>
-      <c r="D220" s="34"/>
-      <c r="E220" s="34"/>
-      <c r="F220" s="35"/>
-      <c r="G220" s="34"/>
-      <c r="H220" s="34"/>
-      <c r="I220" s="35"/>
+    <row r="220" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N220" s="15"/>
       <c r="O220" s="15"/>
       <c r="P220" s="15"/>
       <c r="Q220" s="15"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A221" s="19"/>
-      <c r="B221" s="38"/>
-      <c r="C221" s="38"/>
-      <c r="D221" s="38"/>
-      <c r="E221" s="38"/>
-      <c r="F221" s="38"/>
-      <c r="G221" s="38"/>
-      <c r="H221" s="38"/>
-      <c r="I221" s="38"/>
-      <c r="J221" s="16"/>
+    <row r="221" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N221" s="15"/>
       <c r="O221" s="15"/>
       <c r="P221" s="15"/>
       <c r="Q221" s="15"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A222" s="19"/>
-      <c r="B222" s="38"/>
-      <c r="C222" s="38"/>
-      <c r="D222" s="38"/>
-      <c r="E222" s="38"/>
-      <c r="F222" s="38"/>
-      <c r="G222" s="38"/>
-      <c r="H222" s="38"/>
-      <c r="I222" s="38"/>
-      <c r="J222" s="16"/>
+    <row r="222" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N222" s="15"/>
       <c r="O222" s="15"/>
       <c r="P222" s="15"/>
       <c r="Q222" s="15"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A223" s="19"/>
-      <c r="B223" s="38"/>
-      <c r="C223" s="38"/>
-      <c r="D223" s="38"/>
-      <c r="E223" s="38"/>
-      <c r="F223" s="38"/>
-      <c r="G223" s="38"/>
-      <c r="H223" s="38"/>
-      <c r="I223" s="38"/>
-      <c r="J223" s="16"/>
+    <row r="223" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N223" s="15"/>
       <c r="O223" s="15"/>
       <c r="P223" s="15"/>
       <c r="Q223" s="15"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A224" s="19"/>
-      <c r="B224" s="38"/>
-      <c r="C224" s="38"/>
-      <c r="D224" s="38"/>
-      <c r="E224" s="38"/>
-      <c r="F224" s="38"/>
-      <c r="G224" s="38"/>
-      <c r="H224" s="38"/>
-      <c r="I224" s="38"/>
-      <c r="J224" s="16"/>
+    <row r="224" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N224" s="15"/>
       <c r="O224" s="15"/>
       <c r="P224" s="15"/>
       <c r="Q224" s="15"/>
     </row>
-    <row r="225" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B225" s="36"/>
-      <c r="C225" s="36"/>
-      <c r="D225" s="36"/>
-      <c r="E225" s="36"/>
-      <c r="F225" s="37"/>
-      <c r="G225" s="36"/>
-      <c r="H225" s="36"/>
-      <c r="I225" s="37"/>
+    <row r="225" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N225" s="15"/>
       <c r="O225" s="15"/>
       <c r="P225" s="15"/>
       <c r="Q225" s="15"/>
     </row>
-    <row r="226" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N226" s="15"/>
       <c r="O226" s="15"/>
       <c r="P226" s="15"/>
       <c r="Q226" s="15"/>
     </row>
-    <row r="227" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N227" s="15"/>
       <c r="O227" s="15"/>
       <c r="P227" s="15"/>
       <c r="Q227" s="15"/>
     </row>
-    <row r="228" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N228" s="15"/>
       <c r="O228" s="15"/>
       <c r="P228" s="15"/>
       <c r="Q228" s="15"/>
     </row>
-    <row r="229" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N229" s="15"/>
       <c r="O229" s="15"/>
       <c r="P229" s="15"/>
       <c r="Q229" s="15"/>
     </row>
-    <row r="230" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N230" s="15"/>
       <c r="O230" s="15"/>
       <c r="P230" s="15"/>
       <c r="Q230" s="15"/>
     </row>
-    <row r="231" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N231" s="15"/>
       <c r="O231" s="15"/>
       <c r="P231" s="15"/>
       <c r="Q231" s="15"/>
     </row>
-    <row r="232" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N232" s="15"/>
       <c r="O232" s="15"/>
       <c r="P232" s="15"/>
       <c r="Q232" s="15"/>
     </row>
-    <row r="233" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N233" s="15"/>
       <c r="O233" s="15"/>
       <c r="P233" s="15"/>
       <c r="Q233" s="15"/>
     </row>
-    <row r="234" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N234" s="15"/>
       <c r="O234" s="15"/>
       <c r="P234" s="15"/>
       <c r="Q234" s="15"/>
     </row>
-    <row r="235" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N235" s="15"/>
       <c r="O235" s="15"/>
       <c r="P235" s="15"/>
       <c r="Q235" s="15"/>
     </row>
-    <row r="236" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N236" s="15"/>
       <c r="O236" s="15"/>
       <c r="P236" s="15"/>
       <c r="Q236" s="15"/>
     </row>
-    <row r="237" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N237" s="15"/>
       <c r="O237" s="15"/>
       <c r="P237" s="15"/>
       <c r="Q237" s="15"/>
     </row>
-    <row r="238" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N238" s="15"/>
       <c r="O238" s="15"/>
       <c r="P238" s="15"/>
       <c r="Q238" s="15"/>
     </row>
-    <row r="239" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N239" s="15"/>
       <c r="O239" s="15"/>
       <c r="P239" s="15"/>
       <c r="Q239" s="15"/>
     </row>
-    <row r="240" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N240" s="15"/>
       <c r="O240" s="15"/>
       <c r="P240" s="15"/>
@@ -44717,104 +44168,8 @@
       <c r="P334" s="15"/>
       <c r="Q334" s="15"/>
     </row>
-    <row r="335" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N335" s="15"/>
-      <c r="O335" s="15"/>
-      <c r="P335" s="15"/>
-      <c r="Q335" s="15"/>
-    </row>
-    <row r="336" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N336" s="15"/>
-      <c r="O336" s="15"/>
-      <c r="P336" s="15"/>
-      <c r="Q336" s="15"/>
-    </row>
-    <row r="337" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N337" s="15"/>
-      <c r="O337" s="15"/>
-      <c r="P337" s="15"/>
-      <c r="Q337" s="15"/>
-    </row>
-    <row r="338" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N338" s="15"/>
-      <c r="O338" s="15"/>
-      <c r="P338" s="15"/>
-      <c r="Q338" s="15"/>
-    </row>
-    <row r="339" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N339" s="15"/>
-      <c r="O339" s="15"/>
-      <c r="P339" s="15"/>
-      <c r="Q339" s="15"/>
-    </row>
-    <row r="340" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N340" s="15"/>
-      <c r="O340" s="15"/>
-      <c r="P340" s="15"/>
-      <c r="Q340" s="15"/>
-    </row>
-    <row r="341" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N341" s="15"/>
-      <c r="O341" s="15"/>
-      <c r="P341" s="15"/>
-      <c r="Q341" s="15"/>
-    </row>
-    <row r="342" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N342" s="15"/>
-      <c r="O342" s="15"/>
-      <c r="P342" s="15"/>
-      <c r="Q342" s="15"/>
-    </row>
-    <row r="343" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N343" s="15"/>
-      <c r="O343" s="15"/>
-      <c r="P343" s="15"/>
-      <c r="Q343" s="15"/>
-    </row>
-    <row r="344" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N344" s="15"/>
-      <c r="O344" s="15"/>
-      <c r="P344" s="15"/>
-      <c r="Q344" s="15"/>
-    </row>
-    <row r="345" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N345" s="15"/>
-      <c r="O345" s="15"/>
-      <c r="P345" s="15"/>
-      <c r="Q345" s="15"/>
-    </row>
-    <row r="346" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N346" s="15"/>
-      <c r="O346" s="15"/>
-      <c r="P346" s="15"/>
-      <c r="Q346" s="15"/>
-    </row>
-    <row r="347" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N347" s="15"/>
-      <c r="O347" s="15"/>
-      <c r="P347" s="15"/>
-      <c r="Q347" s="15"/>
-    </row>
-    <row r="348" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N348" s="15"/>
-      <c r="O348" s="15"/>
-      <c r="P348" s="15"/>
-      <c r="Q348" s="15"/>
-    </row>
-    <row r="349" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N349" s="15"/>
-      <c r="O349" s="15"/>
-      <c r="P349" s="15"/>
-      <c r="Q349" s="15"/>
-    </row>
-    <row r="350" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N350" s="15"/>
-      <c r="O350" s="15"/>
-      <c r="P350" s="15"/>
-      <c r="Q350" s="15"/>
-    </row>
   </sheetData>
-  <autoFilter ref="G1:G350"/>
+  <autoFilter ref="G1:G334"/>
   <sortState ref="B213:K217">
     <sortCondition ref="B213"/>
   </sortState>
